--- a/team_specific_matrix/East Carolina_B.xlsx
+++ b/team_specific_matrix/East Carolina_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1650943396226415</v>
+        <v>0.176</v>
       </c>
       <c r="C2">
-        <v>0.6037735849056604</v>
+        <v>0.592</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009433962264150943</v>
+        <v>0.008</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1226415094339623</v>
+        <v>0.132</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09905660377358491</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007518796992481203</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C3">
-        <v>0.04511278195488722</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7894736842105263</v>
+        <v>0.8193548387096774</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1578947368421053</v>
+        <v>0.1354838709677419</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1785714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3214285714285715</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08074534161490683</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02484472049689441</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="F6">
-        <v>0.06211180124223602</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1987577639751553</v>
+        <v>0.2094240837696335</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006211180124223602</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1118012422360248</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="R6">
-        <v>0.1180124223602484</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="S6">
-        <v>0.3975155279503105</v>
+        <v>0.3926701570680629</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1437908496732026</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0130718954248366</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05228758169934641</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1111111111111111</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006535947712418301</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2091503267973856</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="R7">
-        <v>0.07843137254901961</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="S7">
-        <v>0.3856209150326798</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06997084548104957</v>
+        <v>0.07363420427553444</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01749271137026239</v>
+        <v>0.01900237529691211</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05247813411078717</v>
+        <v>0.05938242280285035</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1224489795918367</v>
+        <v>0.1187648456057007</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.005830903790087463</v>
+        <v>0.007125890736342043</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1428571428571428</v>
+        <v>0.1496437054631829</v>
       </c>
       <c r="R8">
-        <v>0.1399416909620991</v>
+        <v>0.1235154394299287</v>
       </c>
       <c r="S8">
-        <v>0.4489795918367347</v>
+        <v>0.4489311163895487</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1294964028776978</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01438848920863309</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="F9">
-        <v>0.05035971223021583</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1079136690647482</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2014388489208633</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="R9">
-        <v>0.06474820143884892</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S9">
-        <v>0.4316546762589928</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09687184661957618</v>
+        <v>0.09632224168126094</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01513622603430878</v>
+        <v>0.0148861646234676</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07366296670030273</v>
+        <v>0.06830122591943957</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1442986881937437</v>
+        <v>0.1348511383537653</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.003027245206861756</v>
+        <v>0.003502626970227671</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2048435923309788</v>
+        <v>0.2066549912434326</v>
       </c>
       <c r="R10">
-        <v>0.07265388496468214</v>
+        <v>0.07793345008756568</v>
       </c>
       <c r="S10">
-        <v>0.3895055499495459</v>
+        <v>0.3975481611208406</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1606425702811245</v>
+        <v>0.1596091205211726</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08433734939759036</v>
+        <v>0.07817589576547231</v>
       </c>
       <c r="K11">
-        <v>0.2248995983935743</v>
+        <v>0.2214983713355049</v>
       </c>
       <c r="L11">
-        <v>0.5180722891566265</v>
+        <v>0.5211726384364821</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01204819277108434</v>
+        <v>0.01954397394136808</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7384615384615385</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2153846153846154</v>
+        <v>0.2049689440993789</v>
       </c>
       <c r="K12">
-        <v>0.007692307692307693</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="L12">
-        <v>0.007692307692307693</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03076923076923077</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7352941176470589</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1764705882352941</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08823529411764706</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02112676056338028</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1901408450704225</v>
+        <v>0.1976047904191617</v>
       </c>
       <c r="I15">
-        <v>0.07042253521126761</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="J15">
-        <v>0.4366197183098591</v>
+        <v>0.407185628742515</v>
       </c>
       <c r="K15">
-        <v>0.06338028169014084</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01408450704225352</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07042253521126761</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1338028169014084</v>
+        <v>0.1377245508982036</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01418439716312057</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.148936170212766</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="I16">
-        <v>0.0851063829787234</v>
+        <v>0.08</v>
       </c>
       <c r="J16">
-        <v>0.4113475177304964</v>
+        <v>0.3942857142857143</v>
       </c>
       <c r="K16">
-        <v>0.07801418439716312</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007092198581560284</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04964539007092199</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2056737588652482</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.006134969325153374</v>
+        <v>0.0102827763496144</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.196319018404908</v>
+        <v>0.1979434447300771</v>
       </c>
       <c r="I17">
-        <v>0.0736196319018405</v>
+        <v>0.08997429305912596</v>
       </c>
       <c r="J17">
-        <v>0.4233128834355828</v>
+        <v>0.3984575835475578</v>
       </c>
       <c r="K17">
-        <v>0.09202453987730061</v>
+        <v>0.1053984575835476</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01840490797546012</v>
+        <v>0.01542416452442159</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06134969325153374</v>
+        <v>0.05655526992287917</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1288343558282209</v>
+        <v>0.1259640102827763</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0124223602484472</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2049689440993789</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="I18">
-        <v>0.06211180124223602</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="J18">
-        <v>0.3850931677018634</v>
+        <v>0.3858695652173913</v>
       </c>
       <c r="K18">
-        <v>0.1304347826086956</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01863354037267081</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03726708074534162</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1490683229813665</v>
+        <v>0.1358695652173913</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01160541586073501</v>
+        <v>0.01137286758732738</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1924564796905222</v>
+        <v>0.1990251827782291</v>
       </c>
       <c r="I19">
-        <v>0.08123791102514506</v>
+        <v>0.08042242079610074</v>
       </c>
       <c r="J19">
-        <v>0.3597678916827853</v>
+        <v>0.3549959382615759</v>
       </c>
       <c r="K19">
-        <v>0.1141199226305609</v>
+        <v>0.1186027619821284</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02224371373307544</v>
+        <v>0.02193338748984565</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07543520309477757</v>
+        <v>0.06904955320877336</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1431334622823985</v>
+        <v>0.1445978878960195</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/East Carolina_B.xlsx
+++ b/team_specific_matrix/East Carolina_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.176</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="C2">
-        <v>0.592</v>
+        <v>0.5916030534351145</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.132</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.092</v>
+        <v>0.09541984732824428</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006451612903225806</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C3">
-        <v>0.03870967741935484</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8193548387096774</v>
+        <v>0.8209876543209876</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1354838709677419</v>
+        <v>0.1358024691358025</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1428571428571428</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5142857142857142</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3428571428571429</v>
+        <v>0.3023255813953488</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08900523560209424</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02617801047120419</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="E6">
-        <v>0.005235602094240838</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="F6">
-        <v>0.06282722513089005</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2094240837696335</v>
+        <v>0.2184466019417476</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005235602094240838</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1047120418848168</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="R6">
-        <v>0.1047120418848168</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="S6">
-        <v>0.3926701570680629</v>
+        <v>0.3883495145631068</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1290322580645161</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01612903225806452</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06451612903225806</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1182795698924731</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005376344086021506</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2096774193548387</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="R7">
-        <v>0.06989247311827956</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="S7">
-        <v>0.3870967741935484</v>
+        <v>0.3787878787878788</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07363420427553444</v>
+        <v>0.07432432432432433</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01900237529691211</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05938242280285035</v>
+        <v>0.06081081081081081</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1187648456057007</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007125890736342043</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1496437054631829</v>
+        <v>0.1509009009009009</v>
       </c>
       <c r="R8">
-        <v>0.1235154394299287</v>
+        <v>0.1193693693693694</v>
       </c>
       <c r="S8">
-        <v>0.4489311163895487</v>
+        <v>0.4527027027027027</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1169590643274854</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01754385964912281</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="E9">
-        <v>0.005847953216374269</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="F9">
-        <v>0.05263157894736842</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1052631578947368</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2046783625730994</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="R9">
-        <v>0.05263157894736842</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="S9">
-        <v>0.4444444444444444</v>
+        <v>0.4505494505494506</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09632224168126094</v>
+        <v>0.09362389023405973</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0148861646234676</v>
+        <v>0.01856335754640839</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06830122591943957</v>
+        <v>0.06698950766747377</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1348511383537653</v>
+        <v>0.1315577078288943</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.003502626970227671</v>
+        <v>0.004035512510088781</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2066549912434326</v>
+        <v>0.2074253430185634</v>
       </c>
       <c r="R10">
-        <v>0.07793345008756568</v>
+        <v>0.08071025020177562</v>
       </c>
       <c r="S10">
-        <v>0.3975481611208406</v>
+        <v>0.3970944309927361</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1596091205211726</v>
+        <v>0.1564417177914111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07817589576547231</v>
+        <v>0.08282208588957055</v>
       </c>
       <c r="K11">
-        <v>0.2214983713355049</v>
+        <v>0.2239263803680982</v>
       </c>
       <c r="L11">
-        <v>0.5211726384364821</v>
+        <v>0.5184049079754601</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01954397394136808</v>
+        <v>0.01840490797546012</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7391304347826086</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2049689440993789</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="K12">
-        <v>0.006211180124223602</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="L12">
-        <v>0.006211180124223602</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04347826086956522</v>
+        <v>0.04117647058823529</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6923076923076923</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2051282051282051</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1025641025641026</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01796407185628742</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1976047904191617</v>
+        <v>0.2011173184357542</v>
       </c>
       <c r="I15">
-        <v>0.07784431137724551</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="J15">
-        <v>0.407185628742515</v>
+        <v>0.4022346368715084</v>
       </c>
       <c r="K15">
-        <v>0.0658682634730539</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01796407185628742</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07784431137724551</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1377245508982036</v>
+        <v>0.1396648044692737</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02857142857142857</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1485714285714286</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="I16">
-        <v>0.08</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="J16">
-        <v>0.3942857142857143</v>
+        <v>0.3862433862433862</v>
       </c>
       <c r="K16">
-        <v>0.08571428571428572</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005714285714285714</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05714285714285714</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2</v>
+        <v>0.1957671957671958</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0102827763496144</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1979434447300771</v>
+        <v>0.1872037914691943</v>
       </c>
       <c r="I17">
-        <v>0.08997429305912596</v>
+        <v>0.0924170616113744</v>
       </c>
       <c r="J17">
-        <v>0.3984575835475578</v>
+        <v>0.4052132701421801</v>
       </c>
       <c r="K17">
-        <v>0.1053984575835476</v>
+        <v>0.09715639810426541</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01542416452442159</v>
+        <v>0.02132701421800948</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05655526992287917</v>
+        <v>0.05450236966824645</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1259640102827763</v>
+        <v>0.1327014218009479</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01630434782608696</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2173913043478261</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="I18">
-        <v>0.05978260869565218</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="J18">
-        <v>0.3858695652173913</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="K18">
-        <v>0.1141304347826087</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01630434782608696</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05434782608695652</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1358695652173913</v>
+        <v>0.1414141414141414</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01137286758732738</v>
+        <v>0.01283987915407855</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1990251827782291</v>
+        <v>0.195619335347432</v>
       </c>
       <c r="I19">
-        <v>0.08042242079610074</v>
+        <v>0.07779456193353475</v>
       </c>
       <c r="J19">
-        <v>0.3549959382615759</v>
+        <v>0.3625377643504532</v>
       </c>
       <c r="K19">
-        <v>0.1186027619821284</v>
+        <v>0.1178247734138973</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02193338748984565</v>
+        <v>0.02190332326283988</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06904955320877336</v>
+        <v>0.06797583081570997</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1445978878960195</v>
+        <v>0.1435045317220544</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/East Carolina_B.xlsx
+++ b/team_specific_matrix/East Carolina_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1755725190839695</v>
+        <v>0.166077738515901</v>
       </c>
       <c r="C2">
-        <v>0.5916030534351145</v>
+        <v>0.6113074204946997</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007633587786259542</v>
+        <v>0.01060070671378092</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1297709923664122</v>
+        <v>0.1201413427561837</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09541984732824428</v>
+        <v>0.09187279151943463</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006172839506172839</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="C3">
-        <v>0.03703703703703703</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8209876543209876</v>
+        <v>0.8176795580110497</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1358024691358025</v>
+        <v>0.1325966850828729</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1162790697674419</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5813953488372093</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3023255813953488</v>
+        <v>0.2826086956521739</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0825242718446602</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02912621359223301</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="E6">
-        <v>0.004854368932038835</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="F6">
-        <v>0.06310679611650485</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2184466019417476</v>
+        <v>0.2247706422018349</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004854368932038835</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1067961165048544</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="R6">
-        <v>0.1019417475728155</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="S6">
-        <v>0.3883495145631068</v>
+        <v>0.3853211009174312</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1313131313131313</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01515151515151515</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="F7">
-        <v>0.06060606060606061</v>
+        <v>0.05581395348837209</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1111111111111111</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005050505050505051</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2272727272727273</v>
+        <v>0.2186046511627907</v>
       </c>
       <c r="R7">
-        <v>0.0707070707070707</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="S7">
-        <v>0.3787878787878788</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07432432432432433</v>
+        <v>0.07773109243697479</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01801801801801802</v>
+        <v>0.01890756302521008</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06081081081081081</v>
+        <v>0.05672268907563025</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1171171171171171</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006756756756756757</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1509009009009009</v>
+        <v>0.1491596638655462</v>
       </c>
       <c r="R8">
-        <v>0.1193693693693694</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="S8">
-        <v>0.4527027027027027</v>
+        <v>0.4453781512605042</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1098901098901099</v>
+        <v>0.1088082901554404</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02197802197802198</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="E9">
-        <v>0.005494505494505495</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="F9">
-        <v>0.05494505494505494</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1043956043956044</v>
+        <v>0.1036269430051813</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1978021978021978</v>
+        <v>0.2020725388601036</v>
       </c>
       <c r="R9">
-        <v>0.05494505494505494</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="S9">
-        <v>0.4505494505494506</v>
+        <v>0.4455958549222798</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09362389023405973</v>
+        <v>0.09538002980625931</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01856335754640839</v>
+        <v>0.01862891207153502</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06698950766747377</v>
+        <v>0.06706408345752608</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1315577078288943</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.004035512510088781</v>
+        <v>0.003725782414307004</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2074253430185634</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="R10">
-        <v>0.08071025020177562</v>
+        <v>0.08122205663189269</v>
       </c>
       <c r="S10">
-        <v>0.3970944309927361</v>
+        <v>0.3926974664679583</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1564417177914111</v>
+        <v>0.1577464788732394</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08282208588957055</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="K11">
-        <v>0.2239263803680982</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="L11">
-        <v>0.5184049079754601</v>
+        <v>0.5154929577464789</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01840490797546012</v>
+        <v>0.01690140845070422</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7352941176470589</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2117647058823529</v>
+        <v>0.2054054054054054</v>
       </c>
       <c r="K12">
-        <v>0.005882352941176471</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="L12">
-        <v>0.005882352941176471</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04117647058823529</v>
+        <v>0.04324324324324325</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7045454545454546</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2045454545454546</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09090909090909091</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01675977653631285</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2011173184357542</v>
+        <v>0.193717277486911</v>
       </c>
       <c r="I15">
-        <v>0.07262569832402235</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="J15">
-        <v>0.4022346368715084</v>
+        <v>0.4083769633507853</v>
       </c>
       <c r="K15">
-        <v>0.0670391061452514</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01675977653631285</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08379888268156424</v>
+        <v>0.08376963350785341</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1396648044692737</v>
+        <v>0.1465968586387434</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03174603174603174</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1481481481481481</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="I16">
-        <v>0.07936507936507936</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="J16">
-        <v>0.3862433862433862</v>
+        <v>0.3864734299516908</v>
       </c>
       <c r="K16">
-        <v>0.09523809523809523</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005291005291005291</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0582010582010582</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1957671957671958</v>
+        <v>0.1835748792270532</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009478672985781991</v>
+        <v>0.008869179600886918</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1872037914691943</v>
+        <v>0.188470066518847</v>
       </c>
       <c r="I17">
-        <v>0.0924170616113744</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J17">
-        <v>0.4052132701421801</v>
+        <v>0.4035476718403548</v>
       </c>
       <c r="K17">
-        <v>0.09715639810426541</v>
+        <v>0.09977827050997783</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02132701421800948</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05450236966824645</v>
+        <v>0.05764966740576496</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1327014218009479</v>
+        <v>0.1263858093126386</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01515151515151515</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2121212121212121</v>
+        <v>0.2165898617511521</v>
       </c>
       <c r="I18">
-        <v>0.06565656565656566</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="J18">
-        <v>0.3939393939393939</v>
+        <v>0.391705069124424</v>
       </c>
       <c r="K18">
-        <v>0.1060606060606061</v>
+        <v>0.1059907834101382</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01515151515151515</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0505050505050505</v>
+        <v>0.04608294930875576</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1414141414141414</v>
+        <v>0.1382488479262673</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01283987915407855</v>
+        <v>0.01283880171184023</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.195619335347432</v>
+        <v>0.1982881597717546</v>
       </c>
       <c r="I19">
-        <v>0.07779456193353475</v>
+        <v>0.07631954350927246</v>
       </c>
       <c r="J19">
-        <v>0.3625377643504532</v>
+        <v>0.3630527817403709</v>
       </c>
       <c r="K19">
-        <v>0.1178247734138973</v>
+        <v>0.1176890156918688</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02190332326283988</v>
+        <v>0.02211126961483595</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06797583081570997</v>
+        <v>0.06847360912981455</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1435045317220544</v>
+        <v>0.1412268188302425</v>
       </c>
     </row>
   </sheetData>
